--- a/03_Outputs/all/01_TablasDescriptivas/idx2_Adultez_summary_labels.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx2_Adultez_summary_labels.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,108 +478,81 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tgp_mujeres</t>
+          <t>td_brecha</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tasa participación (mujeres)</t>
+          <t>Brecha desocupación M–H</t>
         </is>
       </c>
       <c r="C5">
         <v>125</v>
       </c>
       <c r="D5">
-        <v>27.47607500604618</v>
+        <v>-6.381860920101404</v>
       </c>
       <c r="E5">
-        <v>6.707333418544954</v>
+        <v>5.633737924217708</v>
       </c>
       <c r="F5">
-        <v>15.5129921642154</v>
+        <v>-24.58368873596191</v>
       </c>
       <c r="G5">
-        <v>51.3739553009003</v>
+        <v>3.583392143249512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>td_brecha</t>
+          <t>td_hombres</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brecha desocupación M–H</t>
+          <t>Tasa de desocupación (H)</t>
         </is>
       </c>
       <c r="C6">
         <v>125</v>
       </c>
       <c r="D6">
-        <v>-6.381860920101404</v>
+        <v>-3.725542710226969</v>
       </c>
       <c r="E6">
-        <v>5.633737924217708</v>
+        <v>2.719266561537225</v>
       </c>
       <c r="F6">
-        <v>-24.58368873596191</v>
+        <v>-13.3393230929142</v>
       </c>
       <c r="G6">
-        <v>3.583392143249512</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>td_hombres</t>
+          <t>td_mujeres</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tasa de desocupación (H)</t>
+          <t>Tasa de desocupación (M)</t>
         </is>
       </c>
       <c r="C7">
         <v>125</v>
       </c>
       <c r="D7">
-        <v>-3.725542710226969</v>
+        <v>-10.10740360767539</v>
       </c>
       <c r="E7">
-        <v>2.719266561537225</v>
+        <v>6.343518922286948</v>
       </c>
       <c r="F7">
-        <v>-13.3393230929142</v>
+        <v>-29.8314030138351</v>
       </c>
       <c r="G7">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>td_mujeres</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Tasa de desocupación (M)</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>125</v>
-      </c>
-      <c r="D8">
-        <v>-10.10740360767539</v>
-      </c>
-      <c r="E8">
-        <v>6.343518922286948</v>
-      </c>
-      <c r="F8">
-        <v>-29.8314030138351</v>
-      </c>
-      <c r="G8">
         <v>-0</v>
       </c>
     </row>
